--- a/Glove Controller/Project Outputs for Glove Controller/Glove Controller.xlsx
+++ b/Glove Controller/Project Outputs for Glove Controller/Glove Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noorg\OneDrive\Documents\GitHub\ENEL-400-Group\Glove Controller\Project Outputs for Glove Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1BAE6A-A8C0-4D5D-8C28-1F1A705BA6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E3AE8-AD9A-4341-B166-8A3675180A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{7DAFEDC3-93A3-4A24-A36E-FCD4FFC64096}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0D055FED-F53A-4D3F-A87D-569563226C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Glove Controller" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
   <si>
     <t>Comment</t>
   </si>
@@ -65,13 +65,13 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 5% +Tol, 5% -Tol, X7R, 15% TC, 0.1uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C1, C3, C4, C5, C7, C8</t>
+    <t>C1, C3, C5, C8</t>
   </si>
   <si>
     <t>0603</t>
   </si>
   <si>
-    <t>CL10B104JB8NNNC, C-CL10B104JB8NNNC, CC-CL10B104JB8NNNC</t>
+    <t>CL10B104JB8NNNC, C-CL10B104JB8NNNC</t>
   </si>
   <si>
     <t>CL10A226MP8NUNE</t>
@@ -89,10 +89,19 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X7R, 15% TC, 1uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C6, C12, C13</t>
-  </si>
-  <si>
-    <t>CC-CL10B105KP8NNNC, C-CL10B105KP8NNNC</t>
+    <t>C6, C13</t>
+  </si>
+  <si>
+    <t>0603 - C</t>
+  </si>
+  <si>
+    <t>CC-CL10B105KP8NNNC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>CC-CL10B104JB8NNNC</t>
   </si>
   <si>
     <t>CL10B473KO8NNNC</t>
@@ -113,7 +122,7 @@
     <t>Aluminum Electrolytic Capacitor, Polarized, Aluminum (wet), 25V, 20% +Tol, 20% -Tol, 22uF, Surface Mount, 2121</t>
   </si>
   <si>
-    <t>C10, C11, C14</t>
+    <t>C10, C11</t>
   </si>
   <si>
     <t>CC-25SVPF47M</t>
@@ -122,6 +131,12 @@
     <t>C-EEE-FP1E220AR, CC-EEE-FP1E220AR</t>
   </si>
   <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C-CL10B105KP8NNNC</t>
+  </si>
+  <si>
     <t>D-BAT760-7</t>
   </si>
   <si>
@@ -149,19 +164,16 @@
     <t>D-SML-D12P8WT86</t>
   </si>
   <si>
-    <t>SP0503BAHTG</t>
-  </si>
-  <si>
-    <t>Trans Voltage Suppressor Diode, 5.5V V(RWM), Unidirectional, 3 Element, Silicon, TO-253AA</t>
+    <t>CDSOD323-T05LC</t>
+  </si>
+  <si>
+    <t>Trans Voltage Suppressor Diode, 250W, 5V V(RWM), Bidirectional, 2 Element, Silicon</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>SOT143</t>
-  </si>
-  <si>
-    <t>D-SP0503BAHTG</t>
+    <t>D-CDSOD323-T05LC</t>
   </si>
   <si>
     <t>SML-D12U1WT86</t>
@@ -185,6 +197,21 @@
     <t>D-SML-D12Y1WT86</t>
   </si>
   <si>
+    <t>SM05T1G</t>
+  </si>
+  <si>
+    <t>Trans Voltage Suppressor Diode, 300W, 5V V(RWM), Unidirectional, 2 Element, Silicon, TO-236AB</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>ONSC-SOT-23-3-318-08_V</t>
+  </si>
+  <si>
+    <t>D-SM05T1G</t>
+  </si>
+  <si>
     <t>10118193-0001LF</t>
   </si>
   <si>
@@ -209,7 +236,7 @@
     <t>J2</t>
   </si>
   <si>
-    <t>CON_1053141110</t>
+    <t>temp</t>
   </si>
   <si>
     <t>J-105314-1110</t>
@@ -281,7 +308,10 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 10000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R1, R4, R9, R14, R17, R18, R21, R24, R29</t>
+    <t>R1, R9, R14, R17, R18, R21, R24, R29</t>
+  </si>
+  <si>
+    <t>0603 - R</t>
   </si>
   <si>
     <t>AC0603FR-1310KL, R-AC0603FR-1310KL</t>
@@ -392,10 +422,10 @@
     <t>R-ERJ-3EKF5600V</t>
   </si>
   <si>
-    <t>SW-PTS647SK38SMTR2LFS</t>
-  </si>
-  <si>
-    <t>Keypad Switch, 1 Switches, SPST, Momentary-tactile, 0.05A, 12VDC, 2.94N, Solder Terminal, Surface Mount-straight</t>
+    <t>SW-61300211121</t>
+  </si>
+  <si>
+    <t>Board Connector, 2 Contact(s), 1 Row(s), Male, Straight, 0.1 inch Pitch, Solder Terminal, Locking, Black Insulator, Plug</t>
   </si>
   <si>
     <t>SW1, SW2, SW3</t>
@@ -446,7 +476,7 @@
     <t>U-MCP6071T-E/OT</t>
   </si>
   <si>
-    <t>REG71050DDC</t>
+    <t>REG71050DDCT</t>
   </si>
   <si>
     <t>Switched Capacitor Converter, 0.06A, 1000kHz Switching Freq-Max, PDSO6</t>
@@ -488,10 +518,10 @@
     <t>U-BQ24045DSQR</t>
   </si>
   <si>
+    <t>RMCF0603JT220R</t>
+  </si>
+  <si>
     <t>BAT760-7</t>
-  </si>
-  <si>
-    <t>RMCF0603JT220R</t>
   </si>
 </sst>
 </file>
@@ -887,19 +917,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E02FC8C-DCD0-40B5-A2E0-8900EBC9E39C}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B318BECF-3698-48AD-BAB5-590E4B4F56F4}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18.81640625" customWidth="1"/>
+    <col min="1" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -936,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -959,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -970,612 +1000,672 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="C36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="1">
         <v>1</v>
       </c>
     </row>
